--- a/data/trans_dic/P20D2_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7377030120195399</v>
+        <v>0.7377030120195401</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2975567763564207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5421017242907963</v>
+        <v>0.5421017242907964</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4899292837959672</v>
+        <v>0.4825514315195084</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1220111736516022</v>
+        <v>0.1134180830561008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3625054432019195</v>
+        <v>0.3641728550723866</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9092987576693095</v>
+        <v>0.8962191322320983</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5623201973516047</v>
+        <v>0.5444496564710269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7072286015529353</v>
+        <v>0.716804461422749</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.5793057738957609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6120999870821746</v>
+        <v>0.6120999870821744</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3566293927571277</v>
+        <v>0.351780235706655</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3386314130493246</v>
+        <v>0.3497769842547536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4313869706610641</v>
+        <v>0.4281658522546311</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8645583481381458</v>
+        <v>0.8656207276337685</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8317819880623334</v>
+        <v>0.8391312878363518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7920268858804066</v>
+        <v>0.7826394794698879</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7035276831850187</v>
+        <v>0.7035276831850188</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4495882611173522</v>
+        <v>0.4495882611173523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6088609096275754</v>
+        <v>0.6088609096275756</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4272405672392151</v>
+        <v>0.4000745603536014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1613740879108277</v>
+        <v>0.2052916421063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4126839236923974</v>
+        <v>0.4165567765098919</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9120838338492332</v>
+        <v>0.9246327456096887</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7330322768019463</v>
+        <v>0.7102174758906468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7830351214284152</v>
+        <v>0.7957294115957442</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.769498508125424</v>
+        <v>0.7694985081254239</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3249095626901092</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5669197844312139</v>
+        <v>0.5706235145903054</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1888363768861075</v>
+        <v>0.1727254914586742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4222207669495768</v>
+        <v>0.411613337305371</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9018901699747811</v>
+        <v>0.9160281942497757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5055015367753011</v>
+        <v>0.5019264496969623</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6719601853484074</v>
+        <v>0.6675666295082742</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8158</v>
+        <v>8035</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1625</v>
+        <v>1511</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10864</v>
+        <v>10914</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15141</v>
+        <v>14923</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7490</v>
+        <v>7252</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21196</v>
+        <v>21483</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5582</v>
+        <v>5506</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5233</v>
+        <v>5405</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13418</v>
+        <v>13318</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13532</v>
+        <v>13549</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12854</v>
+        <v>12967</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24636</v>
+        <v>24344</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6601</v>
+        <v>6182</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1482</v>
+        <v>1885</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10166</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14093</v>
+        <v>14287</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6732</v>
+        <v>6523</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19290</v>
+        <v>19603</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11592</v>
+        <v>11668</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3650</v>
+        <v>3339</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16795</v>
+        <v>16373</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18442</v>
+        <v>18731</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9771</v>
+        <v>9702</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26729</v>
+        <v>26554</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
     </row>
     <row r="24">
